--- a/Model/Exp5_step/Basic Search Rule.xlsx
+++ b/Model/Exp5_step/Basic Search Rule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50029AFD-B2B7-4BE8-8067-912D18A439A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B317C2B9-4C70-4B0E-8CEB-3C7662DE63F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="etc" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="930">
   <si>
     <t>File</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,9 +668,6 @@
     <t>/etc/devfs/conf.d/*</t>
   </si>
   <si>
-    <t>/etc/init.d/*</t>
-  </si>
-  <si>
     <t>/etc/kde/*</t>
   </si>
   <si>
@@ -2824,6 +2821,37 @@
   </si>
   <si>
     <t>/boot/[a-z0-9]{10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/localtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/init.d/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/init/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/systemd/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/suid-debug</t>
+  </si>
+  <si>
+    <t>/dev/shm/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/proc/.inl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/bus/*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3154,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3346,7 +3374,7 @@
         <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>210</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3360,7 +3388,7 @@
         <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3374,7 +3402,7 @@
         <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3388,7 +3416,7 @@
         <v>159</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3402,7 +3430,7 @@
         <v>190</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3416,7 +3444,7 @@
         <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,7 +3458,7 @@
         <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3444,7 +3472,7 @@
         <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3458,7 +3486,7 @@
         <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,7 +3500,7 @@
         <v>163</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3486,7 +3514,7 @@
         <v>192</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3500,7 +3528,7 @@
         <v>164</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3514,7 +3542,7 @@
         <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3528,7 +3556,7 @@
         <v>165</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3542,7 +3570,7 @@
         <v>166</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3556,7 +3584,7 @@
         <v>194</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3570,7 +3598,7 @@
         <v>195</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3584,7 +3612,7 @@
         <v>196</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3598,7 +3626,7 @@
         <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,8 +3639,11 @@
       <c r="C32" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3622,8 +3653,11 @@
       <c r="C33" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -3634,7 +3668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -3645,7 +3679,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -3656,7 +3690,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -3667,7 +3701,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -3678,7 +3712,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -3689,7 +3723,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -3700,7 +3734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3711,7 +3745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -3722,7 +3756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -3733,7 +3767,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3744,7 +3778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -3755,7 +3789,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,7 +3800,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -3777,7 +3811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -3829,7 +3863,7 @@
         <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4525,7 +4559,7 @@
         <v>141</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -4533,17 +4567,23 @@
         <v>142</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -4589,35 +4629,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -4658,39 +4698,39 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -4731,39 +4771,39 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -4774,10 +4814,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C4F0-FF1B-4FB0-AFD6-EC4459DD4CAB}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4804,168 +4844,174 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E1224E-91B9-4AED-BB4A-B1D4E4F8EC7F}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4993,1196 +5039,1201 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="1" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -6196,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3543528E-0429-4126-8214-98FC40279A67}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6224,655 +6275,657 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B66" s="1"/>
+        <v>489</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>927</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6880,7 +6933,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6888,7 +6941,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6896,7 +6949,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6904,7 +6957,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6912,7 +6965,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6920,7 +6973,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6928,7 +6981,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6936,7 +6989,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6944,7 +6997,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6952,7 +7005,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6960,7 +7013,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6968,7 +7021,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6976,7 +7029,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6984,7 +7037,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6992,7 +7045,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -7000,7 +7053,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7008,7 +7061,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7016,7 +7069,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7024,7 +7077,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7032,7 +7085,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7040,7 +7093,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7048,7 +7101,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7056,7 +7109,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7064,7 +7117,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7072,7 +7125,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7080,7 +7133,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7088,7 +7141,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7096,7 +7149,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7104,7 +7157,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7112,7 +7165,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7120,7 +7173,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7128,7 +7181,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7136,7 +7189,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7144,7 +7197,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7152,7 +7205,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7160,7 +7213,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7168,7 +7221,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7176,7 +7229,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7184,7 +7237,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7192,7 +7245,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7200,7 +7253,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7208,7 +7261,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7216,7 +7269,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7224,7 +7277,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7232,7 +7285,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7240,7 +7293,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7248,7 +7301,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7256,7 +7309,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7264,7 +7317,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7272,7 +7325,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7280,7 +7333,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7288,7 +7341,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7296,7 +7349,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7304,7 +7357,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7312,7 +7365,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7320,7 +7373,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7328,7 +7381,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7336,7 +7389,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7344,7 +7397,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7352,7 +7405,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7360,7 +7413,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7368,7 +7421,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7376,7 +7429,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7384,7 +7437,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7392,7 +7445,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7400,7 +7453,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7408,7 +7461,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7416,7 +7469,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7424,7 +7477,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7432,7 +7485,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7440,7 +7493,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7448,7 +7501,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7456,7 +7509,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7464,7 +7517,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7472,7 +7525,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7480,7 +7533,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7488,7 +7541,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7496,7 +7549,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7505,6 +7558,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7540,415 +7594,415 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -7990,348 +8044,348 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -8345,7 +8399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A133A2-1321-4376-83B3-582E87B6BD23}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -8374,144 +8428,144 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -8552,98 +8606,98 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -8684,68 +8738,68 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -8785,66 +8839,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
